--- a/PROJECT/PreciosValoracionesAirbnb/Excel Salidas/Barcelona/averageRatingBarcelonaZipcode.xlsx
+++ b/PROJECT/PreciosValoracionesAirbnb/Excel Salidas/Barcelona/averageRatingBarcelonaZipcode.xlsx
@@ -448,537 +448,537 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>8017</t>
+          <t>8923</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>93.35555555555555</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>8029</t>
+          <t>8039</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>90.81</v>
+        <v>98.42857142857143</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8019</t>
+          <t>8196</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90.97770700636943</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8035</t>
+          <t>8000</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>90.80263157894737</v>
+        <v>97.33333333333333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>8008</t>
+          <t>8033</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>91.44680851063829</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>8198</t>
+          <t>8034</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>78</v>
+        <v>94.45161290322581</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8012</t>
+          <t>8016</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>91.84642857142858</v>
+        <v>94.08333333333333</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8041</t>
+          <t>8022</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>90.38586956521739</v>
+        <v>93.58139534883721</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8021</t>
+          <t>8017</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>86.125</v>
+        <v>93.35555555555555</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8034</t>
+          <t>8197</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>94.45161290322581</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>8024</t>
+          <t>8010</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>91.64756446991404</v>
+        <v>92.67639902676399</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>8020</t>
+          <t>8930</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>90.3855421686747</v>
+        <v>92.54545454545455</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>8031</t>
+          <t>8005</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>90.28787878787878</v>
+        <v>92.2803889789303</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>8003</t>
+          <t>8027</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>90.68722466960352</v>
+        <v>92.24590163934427</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>8016</t>
+          <t>8007</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>94.08333333333333</v>
+        <v>92.21367521367522</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>8011</t>
+          <t>8917</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>91.90032679738562</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>8007</t>
+          <t>8018</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>92.21367521367522</v>
+        <v>91.95940959409594</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>8006</t>
+          <t>8038</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>91.48698884758365</v>
+        <v>91.95505617977528</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>8013</t>
+          <t>8011</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>90.84365162644281</v>
+        <v>91.90032679738562</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>8036</t>
+          <t>8012</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>90.84353741496598</v>
+        <v>91.84642857142858</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>8010</t>
+          <t>8042</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>92.67639902676399</v>
+        <v>91.71428571428571</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>8042</t>
+          <t>8024</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>91.71428571428571</v>
+        <v>91.64756446991404</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>8023</t>
+          <t>8025</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>90.87864077669903</v>
+        <v>91.57661290322581</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>8033</t>
+          <t>8006</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95</v>
+        <v>91.48698884758365</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>8009</t>
+          <t>8008</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>91.41265060240964</v>
+        <v>91.44680851063829</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>8004</t>
+          <t>8009</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>90.65664403491756</v>
+        <v>91.41265060240964</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>8005</t>
+          <t>8037</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>92.2803889789303</v>
+        <v>91.13524590163935</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>8001</t>
+          <t>8019</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>89.14376996805112</v>
+        <v>90.97770700636943</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>8027</t>
+          <t>8023</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>92.24590163934427</v>
+        <v>90.87864077669903</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>8032</t>
+          <t>8013</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>90.79136690647482</v>
+        <v>90.84365162644281</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>8014</t>
+          <t>8036</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>90.58318098720292</v>
+        <v>90.84353741496598</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>8197</t>
+          <t>8029</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>93</v>
+        <v>90.81</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>8002</t>
+          <t>8035</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>88.89619732785201</v>
+        <v>90.80263157894737</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>8018</t>
+          <t>8032</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>91.95940959409594</v>
+        <v>90.79136690647482</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>8015</t>
+          <t>8003</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>90.44318181818181</v>
+        <v>90.68722466960352</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>8028</t>
+          <t>8004</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>89.47619047619048</v>
+        <v>90.65664403491756</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>8930</t>
+          <t>8906</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>92.54545454545455</v>
+        <v>90.59999999999999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>8026</t>
+          <t>8903</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>90.13087248322148</v>
+        <v>90.58974358974359</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>8030</t>
+          <t>8014</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>88.51315789473684</v>
+        <v>90.58318098720292</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>8025</t>
+          <t>8015</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>91.57661290322581</v>
+        <v>90.44318181818181</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>8000</t>
+          <t>8041</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>97.33333333333333</v>
+        <v>90.38586956521739</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr"/>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>8020</t>
+        </is>
+      </c>
       <c r="B43" t="n">
-        <v>89.23529411764706</v>
+        <v>90.3855421686747</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>8903</t>
+          <t>8031</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>90.58974358974359</v>
+        <v>90.28787878787878</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>8038</t>
+          <t>8026</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>91.95505617977528</v>
+        <v>90.13087248322148</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>8037</t>
+          <t>8028</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>91.13524590163935</v>
+        <v>89.47619047619048</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>8022</t>
-        </is>
-      </c>
+      <c r="A47" t="inlineStr"/>
       <c r="B47" t="n">
-        <v>93.58139534883721</v>
+        <v>89.23529411764706</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>8196</t>
+          <t>8001</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>98</v>
+        <v>89.14376996805112</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>8290</t>
+          <t>8002</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>83</v>
+        <v>88.89619732785201</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>8902</t>
+          <t>8030</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>87.66666666666667</v>
+        <v>88.51315789473684</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>8904</t>
+          <t>8902</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>87.45454545454545</v>
+        <v>87.66666666666667</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>8906</t>
+          <t>8904</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>90.59999999999999</v>
+        <v>87.45454545454545</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>8039</t>
+          <t>8021</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>98.42857142857143</v>
+        <v>86.125</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>8923</t>
+          <t>8290</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>8917</t>
+          <t>8198</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
